--- a/core/static/upload/scrap_data/ExteriorCoating.xlsx
+++ b/core/static/upload/scrap_data/ExteriorCoating.xlsx
@@ -414,7 +414,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L40"/>
     </sheetView>
   </sheetViews>
